--- a/OREI_files/40-herd data/may17_22_checking facility as confounder.xlsx
+++ b/OREI_files/40-herd data/may17_22_checking facility as confounder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{79F77248-D51E-4C87-9371-7AAD69491DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CDA64B3-54E5-4292-BC75-054E13E74F34}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{79F77248-D51E-4C87-9371-7AAD69491DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F98C7462-DD17-4EF2-82CB-42641DEFF186}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{170D0B7E-AE78-49EE-9E78-B8F89C754BFC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="199">
   <si>
     <t>raw scc</t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t>perc chron imi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Estimate Std. Error t value Pr(&gt;|t|)   </t>
   </si>
 </sst>
 </file>
@@ -803,6 +806,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -857,8 +862,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1B5811-E3CA-42E0-93E3-1FCAF6EFD169}">
   <dimension ref="A2:T46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1192,7 +1195,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1248,7 +1251,7 @@
       <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="5" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1267,13 +1270,13 @@
       <c r="H13" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="9"/>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1283,11 +1286,11 @@
       <c r="H14" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1311,14 +1314,14 @@
       <c r="H16" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="13"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="15"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -1327,23 +1330,23 @@
       <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="18"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="H18" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="18"/>
     </row>
     <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
@@ -1352,12 +1355,12 @@
       <c r="H19" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="21"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
@@ -1534,12 +1537,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA8DFD8-2A0F-437F-AA1B-70768262464B}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1595,13 +1600,13 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="7"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
@@ -1610,11 +1615,11 @@
       <c r="J11" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
@@ -1639,14 +1644,14 @@
       <c r="J14" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="15"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -1655,12 +1660,12 @@
       <c r="J15" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="18"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
@@ -1669,23 +1674,23 @@
       <c r="J16" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
-    </row>
-    <row r="17" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J17" t="s">
         <v>22</v>
       </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="21"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
@@ -1748,7 +1753,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1757,7 +1762,7 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1815,27 +1820,27 @@
       <c r="J10" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="7"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J11" t="s">
         <v>89</v>
       </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="12"/>
     </row>
     <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
@@ -1849,28 +1854,28 @@
       <c r="J13" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="7"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>79</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="22"/>
+        <v>198</v>
+      </c>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="24"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -1879,12 +1884,12 @@
       <c r="J15" t="s">
         <v>90</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
@@ -1893,12 +1898,12 @@
       <c r="J16" t="s">
         <v>91</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="24"/>
     </row>
     <row r="17" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
@@ -1907,12 +1912,12 @@
       <c r="J17" t="s">
         <v>92</v>
       </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="12"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
@@ -1987,7 +1992,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1996,7 +2001,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2042,15 +2047,15 @@
       <c r="G8" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
@@ -2059,13 +2064,13 @@
       <c r="G9" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
@@ -2075,14 +2080,14 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
@@ -2091,12 +2096,12 @@
       <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="24"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -2105,12 +2110,12 @@
       <c r="G13" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
@@ -2119,12 +2124,12 @@
       <c r="G14" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
@@ -2133,12 +2138,12 @@
       <c r="G15" t="s">
         <v>102</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
@@ -2213,14 +2218,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723AE928-AE90-4596-AAF3-A04FE6320565}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2278,27 +2283,27 @@
       <c r="K10" t="s">
         <v>88</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="7"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="9"/>
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K11" t="s">
         <v>130</v>
       </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
@@ -2312,14 +2317,14 @@
       <c r="K13" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="7"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
@@ -2328,12 +2333,12 @@
       <c r="K14" t="s">
         <v>63</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="24"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -2342,12 +2347,12 @@
       <c r="K15" t="s">
         <v>131</v>
       </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="24"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
@@ -2356,12 +2361,12 @@
       <c r="K16" t="s">
         <v>132</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="24"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -2370,23 +2375,23 @@
       <c r="K17" t="s">
         <v>133</v>
       </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="24"/>
     </row>
     <row r="18" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K18" t="s">
         <v>134</v>
       </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="12"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
@@ -2608,7 +2613,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2658,15 +2663,15 @@
       <c r="L9" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="7"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
@@ -2675,13 +2680,13 @@
       <c r="L10" t="s">
         <v>88</v>
       </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L11" t="s">
@@ -2692,14 +2697,14 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="7"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="9"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -2708,12 +2713,12 @@
       <c r="L13" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="20"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="24"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
@@ -2722,12 +2727,12 @@
       <c r="L14" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="20"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="24"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -2736,12 +2741,12 @@
       <c r="L15" t="s">
         <v>168</v>
       </c>
-      <c r="T15" s="20"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="24"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
@@ -2750,12 +2755,12 @@
       <c r="L16" t="s">
         <v>169</v>
       </c>
-      <c r="T16" s="20"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="24"/>
     </row>
     <row r="17" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
@@ -2764,12 +2769,12 @@
       <c r="L17" t="s">
         <v>170</v>
       </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="12"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.35">
       <c r="L18" t="s">
